--- a/Planeamento.xlsx
+++ b/Planeamento.xlsx
@@ -8,23 +8,929 @@
   </bookViews>
   <sheets>
     <sheet name="Planeamento" sheetId="1" r:id="rId1"/>
-    <sheet name="Listagem" sheetId="2" r:id="rId2"/>
+    <sheet name="Estados Enc." sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="303">
   <si>
     <t>LF-3015</t>
+  </si>
+  <si>
+    <t>17:30</t>
+  </si>
+  <si>
+    <t>17:45</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>18:30</t>
+  </si>
+  <si>
+    <t>18:45</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>19:15</t>
+  </si>
+  <si>
+    <t>19:30</t>
+  </si>
+  <si>
+    <t>19:45</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>20:15</t>
+  </si>
+  <si>
+    <t>20:30</t>
+  </si>
+  <si>
+    <t>20:45</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>21:15</t>
+  </si>
+  <si>
+    <t>21:30</t>
+  </si>
+  <si>
+    <t>21:45</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>2/3/2021</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>6:15</t>
+  </si>
+  <si>
+    <t>6:30</t>
+  </si>
+  <si>
+    <t>6:45</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>7:15</t>
+  </si>
+  <si>
+    <t>7:30</t>
+  </si>
+  <si>
+    <t>7:45</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>8:15</t>
+  </si>
+  <si>
+    <t>8:30</t>
+  </si>
+  <si>
+    <t>8:45</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>9:15</t>
+  </si>
+  <si>
+    <t>T1 - Inox 304, 0.5mm Prilux</t>
+  </si>
+  <si>
+    <t>9:30</t>
+  </si>
+  <si>
+    <t>T2 - Ferro S235, 3.0mm Prilux</t>
+  </si>
+  <si>
+    <t>9:45</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>10:30</t>
+  </si>
+  <si>
+    <t>10:45</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>11:15</t>
+  </si>
+  <si>
+    <t>11:30</t>
+  </si>
+  <si>
+    <t>11:45</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>12:15</t>
+  </si>
+  <si>
+    <t>12:30</t>
+  </si>
+  <si>
+    <t>12:45</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>T3 - Ferro DD11, 3.0mm Prilux</t>
+  </si>
+  <si>
+    <t>13:15</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>T4 - Inox 304-2B, 1.5mm Prilux</t>
+  </si>
+  <si>
+    <t>13:45</t>
+  </si>
+  <si>
+    <t>T5 - Inox 304-2B, 2.5mm Prilux</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>14:15</t>
+  </si>
+  <si>
+    <t>14:30</t>
+  </si>
+  <si>
+    <t>14:45</t>
+  </si>
+  <si>
+    <t>T6 - Inox 304-2B, 2.0mm Prilux</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>15:15</t>
+  </si>
+  <si>
+    <t>T7 - Inox 304-Escov., 1.2mm Prilux</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>T8 - Inox 304-2B, 3.0mm Prilux</t>
+  </si>
+  <si>
+    <t>15:45</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>T9 - Inox 304-Escov., 1.5mm Prilux</t>
+  </si>
+  <si>
+    <t>16:15</t>
+  </si>
+  <si>
+    <t>T10 - Inox 304-Escov., 3.0mm Prilux</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>T11 - Ferro S235, 2.0mm Prilux</t>
+  </si>
+  <si>
+    <t>16:45</t>
+  </si>
+  <si>
+    <t>T12 - Ferro S235, 2.5mm Prilux</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>17:15</t>
+  </si>
+  <si>
+    <t>T13 - Inox 310-REFRATARIO, 3.0mm Prilux</t>
+  </si>
+  <si>
+    <t>T14 - Ferro S235, 4.0mm Prilux</t>
+  </si>
+  <si>
+    <t>T15 - Ferro S235, 5.0mm Prilux</t>
+  </si>
+  <si>
+    <t>3/3/2021</t>
+  </si>
+  <si>
+    <t>4/3/2021</t>
+  </si>
+  <si>
+    <t>T16 - Zincado Z275, 2.0mm Prilux</t>
+  </si>
+  <si>
+    <t>T17 - Inox 304-Escov., 2.0mm Prilux</t>
+  </si>
+  <si>
+    <t>T18 - Zincado Z200, 1.2mm Prilux</t>
+  </si>
+  <si>
+    <t>T19 - Inox 304-Escov., 1.5mm Prilux</t>
+  </si>
+  <si>
+    <t>5/3/2021</t>
+  </si>
+  <si>
+    <t>8/3/2021</t>
+  </si>
+  <si>
+    <t>T20 - Ferro S235, 2.0mm Prilux</t>
+  </si>
+  <si>
+    <t>9/3/2021</t>
+  </si>
+  <si>
+    <t>LC5</t>
+  </si>
+  <si>
+    <t>T1 - Ferro S235, 3.0mm Prilux</t>
+  </si>
+  <si>
+    <t>T2 - Zincado Z200, 1.0mm Mangualtécnica</t>
+  </si>
+  <si>
+    <t>T3 - Inox Escov., 5.0mm Prilux</t>
+  </si>
+  <si>
+    <t>T4 - Inox 304-BA, 2.0mm Prilux</t>
+  </si>
+  <si>
+    <t>T5 - Ferro S235, 3.0mm Prilux</t>
+  </si>
+  <si>
+    <t>T6 - Ferro S235, 5.0mm Prilux</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Encomenda</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Data Objetivo</t>
+  </si>
+  <si>
+    <t>Data Conclusão Corte</t>
+  </si>
+  <si>
+    <t>Op. Adic.</t>
+  </si>
+  <si>
+    <t>Nome Peça</t>
+  </si>
+  <si>
+    <t>Qtd.</t>
+  </si>
+  <si>
+    <t>ANADIROBTIC</t>
+  </si>
+  <si>
+    <t>SUSEN 28</t>
+  </si>
+  <si>
+    <t>Planeado</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>8:30 - 9/3/2021</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>CABINE 17A20</t>
+  </si>
+  <si>
+    <t>6:30 - 4/3/2021</t>
+  </si>
+  <si>
+    <t>7:15 - 4/3/2021</t>
+  </si>
+  <si>
+    <t>Concluído</t>
+  </si>
+  <si>
+    <t>COOLFER</t>
+  </si>
+  <si>
+    <t>SUSEN 40</t>
+  </si>
+  <si>
+    <t>Não planeado</t>
+  </si>
+  <si>
+    <t>17:45 - 12/03/2021</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>APOIO FRONTAL SPEC01 V1 ATR080</t>
+  </si>
+  <si>
+    <t>APOIO INF. DOS CILINDROS DE ABERTURA</t>
+  </si>
+  <si>
+    <t>APOIO POSTERIOR SPEC01 V1 ATR080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APOIO SUP. DOS CILINDROS DE ABERTURA </t>
+  </si>
+  <si>
+    <t>15:0 - 3/3/2021</t>
+  </si>
+  <si>
+    <t>BLINDAGEM LATERAL SPEC01 V1</t>
+  </si>
+  <si>
+    <t>CORPO DA BASE DA TINA SPEC01 V1</t>
+  </si>
+  <si>
+    <t>CUTELO DO SUPORTE DOS HIDRAULICOS</t>
+  </si>
+  <si>
+    <t>15:45 - 3/3/2021</t>
+  </si>
+  <si>
+    <t>DOBRADIÇA DA BLINDAGEM SPEC01</t>
+  </si>
+  <si>
+    <t>FECHO FRONTAL DA BASE SPEC01 V1</t>
+  </si>
+  <si>
+    <t>FIXADOR DA TAMPA V2 DO CHASSIS</t>
+  </si>
+  <si>
+    <t>FRENTE DA BASE DA TINA SPEC01 V1</t>
+  </si>
+  <si>
+    <t>FRONTAL INF. BLOCO SUPERIOR SPEC01 V1</t>
+  </si>
+  <si>
+    <t>FRONTAL INTERMEDIO DA BASE SPEC01 V1</t>
+  </si>
+  <si>
+    <t>FRONTAL SUPERIOR SPEC01 V1 AFR100</t>
+  </si>
+  <si>
+    <t>LATERAL DIREITA BLOCO SUPERIOR SPEC01</t>
+  </si>
+  <si>
+    <t>LATERAL DIREITA DA BASE SPEC01 V1</t>
+  </si>
+  <si>
+    <t>LATERAL ESQUERDA BLOCO SUPERIOR</t>
+  </si>
+  <si>
+    <t>LATERAL ESQUERDA DA BASE SPEC01 V1</t>
+  </si>
+  <si>
+    <t>14:0 - 3/3/2021</t>
+  </si>
+  <si>
+    <t>PATILHA DA PROTEÇAO DO COMANDO</t>
+  </si>
+  <si>
+    <t>REFORÇO DO SUPORTE CHUMACEIRA DA TINA</t>
+  </si>
+  <si>
+    <t>REFORÇO INT. BASE DA TINA SPEC01 V1</t>
+  </si>
+  <si>
+    <t>REFORÇO INT. CARRO DA TINA SPEC01 V1.1</t>
+  </si>
+  <si>
+    <t>REFORÇO INTERNO BLOCO SUPERIOR SPEC01</t>
+  </si>
+  <si>
+    <t>SUPORTE CHUMACEIRA DO GANCHO SPEC01</t>
+  </si>
+  <si>
+    <t>SUPORTE DA TAMPA V2 SPEC01 V1</t>
+  </si>
+  <si>
+    <t>SUPORTE DAS RODAS FIXAS SPEC01 V1</t>
+  </si>
+  <si>
+    <t>15:30 - 3/3/2021</t>
+  </si>
+  <si>
+    <t>SUPORTE DO VENTILADOR SPEC01 V1</t>
+  </si>
+  <si>
+    <t>SUPORTE ESTICADOR DA TINA SPEC01 V1</t>
+  </si>
+  <si>
+    <t>13:45 - 3/3/2021</t>
+  </si>
+  <si>
+    <t>TAMPA DA BLINDAGEM LATERAL SPEC01 V1</t>
+  </si>
+  <si>
+    <t>TAMPA DA VIGIA DO CARRO DA TINA</t>
+  </si>
+  <si>
+    <t>TAMPA DO SUPORTE DO VENTILADOR</t>
+  </si>
+  <si>
+    <t>TAMPA HMI GS2107 SPEC01 V2</t>
+  </si>
+  <si>
+    <t>TOPO DA BASE DE ACOPLAMENTO SPEC01</t>
+  </si>
+  <si>
+    <t>ESTUDIO D1</t>
+  </si>
+  <si>
+    <t>SEGUNDO CONTENTOR</t>
+  </si>
+  <si>
+    <t>16:30 - 3/3/2021</t>
+  </si>
+  <si>
+    <t>p019-001-001</t>
+  </si>
+  <si>
+    <t>16:45 - 3/3/2021</t>
+  </si>
+  <si>
+    <t>p019-101-001b</t>
+  </si>
+  <si>
+    <t>9:45 - 3/3/2021</t>
+  </si>
+  <si>
+    <t>p019-101-002b</t>
+  </si>
+  <si>
+    <t>p019-101-003b</t>
+  </si>
+  <si>
+    <t>18:30 - 3/3/2021</t>
+  </si>
+  <si>
+    <t>p019-101-005</t>
+  </si>
+  <si>
+    <t>p019-101-006</t>
+  </si>
+  <si>
+    <t>p019-101-007</t>
+  </si>
+  <si>
+    <t>18:0 - 3/3/2021</t>
+  </si>
+  <si>
+    <t>p019-101-009</t>
+  </si>
+  <si>
+    <t>17:0 - 3/3/2021</t>
+  </si>
+  <si>
+    <t>p019-301-001b</t>
+  </si>
+  <si>
+    <t>A aguardar operações adicionais</t>
+  </si>
+  <si>
+    <t>p026-101-001</t>
+  </si>
+  <si>
+    <t>p026-101-002</t>
+  </si>
+  <si>
+    <t>p026-101-003</t>
+  </si>
+  <si>
+    <t>FRANTECER, LDA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENCL 221/59 </t>
+  </si>
+  <si>
+    <t>17:45 - 16/2/2021</t>
+  </si>
+  <si>
+    <t>corte_aro.inf.voluta.media</t>
+  </si>
+  <si>
+    <t>corte_corpo.voluta.media</t>
+  </si>
+  <si>
+    <t>corte_flange.superior</t>
+  </si>
+  <si>
+    <t>corte_prato.0.75kW.80B5.corpo.rolam</t>
+  </si>
+  <si>
+    <t>corte_tampa.inferior.voluta</t>
+  </si>
+  <si>
+    <t>corte_topo.voluta.media</t>
+  </si>
+  <si>
+    <t>19:0 - 3/3/2021</t>
+  </si>
+  <si>
+    <t>tubo.central.Ø60.3x2</t>
+  </si>
+  <si>
+    <t>GUIALMI</t>
+  </si>
+  <si>
+    <t>SUSEN 178</t>
+  </si>
+  <si>
+    <t>TAMCH00047 - BASE MR NATURE P/ TUBO Ø70 / Ø90 600</t>
+  </si>
+  <si>
+    <t>GUIALMI, EMPRESA DE MOVEIS METALICOS, S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENCL 221/13 </t>
+  </si>
+  <si>
+    <t>17:45 - 14/1/2021</t>
+  </si>
+  <si>
+    <t>TAMCH0091 - BASE LIGAÇÃO SECRETARIA CREDENCIA ORIGAMI RE-STYLING 80x40x4</t>
+  </si>
+  <si>
+    <t>IRBAL</t>
+  </si>
+  <si>
+    <t>IRBAL BACVIT</t>
+  </si>
+  <si>
+    <t>17:45 - 02/02/2021</t>
+  </si>
+  <si>
+    <t>FUNDOS</t>
+  </si>
+  <si>
+    <t>17:45 - 02/03/2021</t>
+  </si>
+  <si>
+    <t>17:45 - 02/04/2021</t>
+  </si>
+  <si>
+    <t>17:45 - 02/05/2021</t>
+  </si>
+  <si>
+    <t>17:45 - 02/06/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUNDOS </t>
+  </si>
+  <si>
+    <t>LATERAIS</t>
+  </si>
+  <si>
+    <t>MANGUALTECNICA</t>
+  </si>
+  <si>
+    <t>SUSEN 33</t>
+  </si>
+  <si>
+    <t>REF. 467</t>
+  </si>
+  <si>
+    <t>REF. 523</t>
+  </si>
+  <si>
+    <t>REF. 678</t>
+  </si>
+  <si>
+    <t>REF. 859</t>
+  </si>
+  <si>
+    <t>SUSEN 41</t>
+  </si>
+  <si>
+    <t>17:45 - 01/03/2021</t>
+  </si>
+  <si>
+    <t>17:45 - 3/3/2021</t>
+  </si>
+  <si>
+    <t>8718647262</t>
+  </si>
+  <si>
+    <t>SUSEN 42</t>
+  </si>
+  <si>
+    <t>17:45 - 18/02/2021</t>
+  </si>
+  <si>
+    <t>13:15 - 3/3/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEÇA DO SUPORTE LAMPADAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEÇA DO SUPORTE MATRICULA </t>
+  </si>
+  <si>
+    <t>MOVSTEEL - TRANSFORMAÇAO DE METAIS, LDA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENCL 221/68 </t>
+  </si>
+  <si>
+    <t>17:45 - 22/2/2021</t>
+  </si>
+  <si>
+    <t>8:0 - 5/3/2021</t>
+  </si>
+  <si>
+    <t>PEÇA NEVES1</t>
+  </si>
+  <si>
+    <t>MPLASTIC</t>
+  </si>
+  <si>
+    <t>SUSEN 53</t>
+  </si>
+  <si>
+    <t>16:15 - 3/3/2021</t>
+  </si>
+  <si>
+    <t>ATUADOR PLANO</t>
+  </si>
+  <si>
+    <t>18:45 - 3/3/2021</t>
+  </si>
+  <si>
+    <t>BASE CIRCULAR</t>
+  </si>
+  <si>
+    <t>BASE ROSCA</t>
+  </si>
+  <si>
+    <t>21:0 - 5/3/2021</t>
+  </si>
+  <si>
+    <t>CILINDRO Ø101.6x1.5MM</t>
+  </si>
+  <si>
+    <t>TAMPA</t>
+  </si>
+  <si>
+    <t>MPLASTIC, LDA</t>
+  </si>
+  <si>
+    <t>Peças a mais</t>
+  </si>
+  <si>
+    <t>17:45 - 18/11/2020</t>
+  </si>
+  <si>
+    <t>RAMPA PLANO</t>
+  </si>
+  <si>
+    <t>OBVIA FONTE, LDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENCL 221/49 </t>
+  </si>
+  <si>
+    <t>17:45 - 16/02/2021</t>
+  </si>
+  <si>
+    <t>CONJUNTO PELLETBIO</t>
+  </si>
+  <si>
+    <t>MDCAL014 - CHAPA COLETOR 12 FUROS</t>
+  </si>
+  <si>
+    <t>OBVIAFONTE</t>
+  </si>
+  <si>
+    <t>QUEIMADORES</t>
+  </si>
+  <si>
+    <t>BARRA CIMA V5</t>
+  </si>
+  <si>
+    <t>CHAPA ARO GRANDE V3</t>
+  </si>
+  <si>
+    <t>CHAPA ARO PEQUENO V3</t>
+  </si>
+  <si>
+    <t>CORPO QUEIMADOR V5</t>
+  </si>
+  <si>
+    <t>TOPO DIR. V6</t>
+  </si>
+  <si>
+    <t>PRILUX</t>
+  </si>
+  <si>
+    <t>CAPITEL</t>
+  </si>
+  <si>
+    <t>CAPITEL_8x</t>
+  </si>
+  <si>
+    <t>PRODUÇÃO ABRAÇADEIRAS FRANCISCO</t>
+  </si>
+  <si>
+    <t>17:45 - 20/02/2021</t>
+  </si>
+  <si>
+    <t>7:45 - 5/3/2021</t>
+  </si>
+  <si>
+    <t>110L00801119</t>
+  </si>
+  <si>
+    <t>111L00302118</t>
+  </si>
+  <si>
+    <t>111R00I01110</t>
+  </si>
+  <si>
+    <t>111R00J01110</t>
+  </si>
+  <si>
+    <t>111R00L01110</t>
+  </si>
+  <si>
+    <t>PRODUÇÃO ALMOFADAS</t>
+  </si>
+  <si>
+    <t>17:45 - 27/02/2021</t>
+  </si>
+  <si>
+    <t>10:45 - 5/3/2021</t>
+  </si>
+  <si>
+    <t>112F00101111_1650_LF</t>
+  </si>
+  <si>
+    <t>112F00101111_LF</t>
+  </si>
+  <si>
+    <t>PRILUX/FRANCISCO</t>
+  </si>
+  <si>
+    <t>ENC. TUBO 70x70x3</t>
+  </si>
+  <si>
+    <t>17:45 - 28/02/2021</t>
+  </si>
+  <si>
+    <t>19:45 - 2/3/2021</t>
+  </si>
+  <si>
+    <t>TUBO 70x70x3</t>
+  </si>
+  <si>
+    <t>PRIREV</t>
+  </si>
+  <si>
+    <t>ENCL 220/613 (PEÇAS EM FALTA)</t>
+  </si>
+  <si>
+    <t>CHAPA FRENTE</t>
+  </si>
+  <si>
+    <t>CHAPA LIS.</t>
+  </si>
+  <si>
+    <t>CHAPA TRÁS</t>
+  </si>
+  <si>
+    <t>SUSEN 39</t>
+  </si>
+  <si>
+    <t>17:45 - 25/02/2021</t>
+  </si>
+  <si>
+    <t>CHAPA TESTE 50x30x1MM C/FURO</t>
+  </si>
+  <si>
+    <t>PRIREV - SURFACE TECHNOLOGY, SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENCL 221/51 </t>
+  </si>
+  <si>
+    <t>17:45 - 5/2/2021</t>
+  </si>
+  <si>
+    <t>020.26-GM 13P</t>
+  </si>
+  <si>
+    <t>020.27 - GM 14P</t>
+  </si>
+  <si>
+    <t>030.21 - CM 10P</t>
+  </si>
+  <si>
+    <t>030.22-11CM</t>
+  </si>
+  <si>
+    <t>CESTOS BAIXO LAV 3/4 INOX</t>
+  </si>
+  <si>
+    <t>TD00054 8P-TESTE</t>
+  </si>
+  <si>
+    <t>SAIDACASCA</t>
+  </si>
+  <si>
+    <t>ENCL 221/56</t>
+  </si>
+  <si>
+    <t>CALHA REFORÇO FUNDO</t>
+  </si>
+  <si>
+    <t>CONJUNTO ESTRUTURA</t>
+  </si>
+  <si>
+    <t>CONJUNTO PAINEL INTERIOR</t>
+  </si>
+  <si>
+    <t>lol</t>
+  </si>
+  <si>
+    <t>17:45 - 04/03/2021</t>
+  </si>
+  <si>
+    <t>9:30 - 3/3/2021</t>
+  </si>
+  <si>
+    <t>peça teste 1</t>
+  </si>
+  <si>
+    <t>peça teste 2</t>
+  </si>
+  <si>
+    <t>17:45 - 03/03/2021</t>
+  </si>
+  <si>
+    <t>peça teste 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,8 +946,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -51,6 +971,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD899"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -82,9 +1026,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -381,30 +1340,5085 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2"/>
+  <dimension ref="B2:JV13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="65" width="10.7109375" customWidth="1"/>
+    <col min="34" max="34" width="34.7109375" customWidth="1"/>
+    <col min="35" max="47" width="9.7109375" customWidth="1"/>
+    <col min="48" max="49" width="10.7109375" customWidth="1"/>
+    <col min="50" max="50" width="35.7109375" customWidth="1"/>
+    <col min="51" max="54" width="10.7109375" customWidth="1"/>
+    <col min="55" max="56" width="10.7109375" customWidth="1"/>
+    <col min="57" max="57" width="35.7109375" customWidth="1"/>
+    <col min="58" max="59" width="9.7109375" customWidth="1"/>
+    <col min="60" max="60" width="40.7109375" customWidth="1"/>
+    <col min="61" max="61" width="35.7109375" customWidth="1"/>
+    <col min="62" max="62" width="35.7109375" customWidth="1"/>
+    <col min="63" max="65" width="10.7109375" customWidth="1"/>
+    <col min="66" max="68" width="10.7109375" customWidth="1"/>
+    <col min="67" max="67" width="35.7109375" customWidth="1"/>
+    <col min="68" max="152" width="9.7109375" customWidth="1"/>
+    <col min="69" max="69" width="35.7109375" customWidth="1"/>
+    <col min="70" max="84" width="9.7109375" customWidth="1"/>
+    <col min="85" max="88" width="9.7109375" customWidth="1"/>
+    <col min="153" max="153" width="40.7109375" customWidth="1"/>
+    <col min="154" max="163" width="10.7109375" customWidth="1"/>
+    <col min="164" max="203" width="10.7109375" customWidth="1"/>
+    <col min="204" max="282" width="9.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:282">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="2:282">
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BQ3" s="1"/>
+      <c r="BR3" s="1"/>
+      <c r="BS3" s="1"/>
+      <c r="BT3" s="1"/>
+      <c r="BU3" s="1"/>
+      <c r="BV3" s="1"/>
+      <c r="BW3" s="1"/>
+      <c r="BX3" s="1"/>
+      <c r="BY3" s="1"/>
+      <c r="BZ3" s="1"/>
+      <c r="CA3" s="1"/>
+      <c r="CB3" s="1"/>
+      <c r="CC3" s="1"/>
+      <c r="CD3" s="1"/>
+      <c r="CE3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF3" s="1"/>
+      <c r="CG3" s="1"/>
+      <c r="CH3" s="1"/>
+      <c r="CI3" s="1"/>
+      <c r="CJ3" s="1"/>
+      <c r="CK3" s="1"/>
+      <c r="CL3" s="1"/>
+      <c r="CM3" s="1"/>
+      <c r="CN3" s="1"/>
+      <c r="CO3" s="1"/>
+      <c r="CP3" s="1"/>
+      <c r="CQ3" s="1"/>
+      <c r="CR3" s="1"/>
+      <c r="CS3" s="1"/>
+      <c r="CT3" s="1"/>
+      <c r="CU3" s="1"/>
+      <c r="CV3" s="1"/>
+      <c r="CW3" s="1"/>
+      <c r="CX3" s="1"/>
+      <c r="CY3" s="1"/>
+      <c r="CZ3" s="1"/>
+      <c r="DA3" s="1"/>
+      <c r="DB3" s="1"/>
+      <c r="DC3" s="1"/>
+      <c r="DD3" s="1"/>
+      <c r="DE3" s="1"/>
+      <c r="DF3" s="1"/>
+      <c r="DG3" s="1"/>
+      <c r="DH3" s="1"/>
+      <c r="DI3" s="1"/>
+      <c r="DJ3" s="1"/>
+      <c r="DK3" s="1"/>
+      <c r="DL3" s="1"/>
+      <c r="DM3" s="1"/>
+      <c r="DN3" s="1"/>
+      <c r="DO3" s="1"/>
+      <c r="DP3" s="1"/>
+      <c r="DQ3" s="1"/>
+      <c r="DR3" s="1"/>
+      <c r="DS3" s="1"/>
+      <c r="DT3" s="1"/>
+      <c r="DU3" s="1"/>
+      <c r="DV3" s="1"/>
+      <c r="DW3" s="1"/>
+      <c r="DX3" s="1"/>
+      <c r="DY3" s="1"/>
+      <c r="DZ3" s="1"/>
+      <c r="EA3" s="1"/>
+      <c r="EB3" s="1"/>
+      <c r="EC3" s="1"/>
+      <c r="ED3" s="1"/>
+      <c r="EE3" s="1"/>
+      <c r="EF3" s="1"/>
+      <c r="EG3" s="1"/>
+      <c r="EH3" s="1"/>
+      <c r="EI3" s="1"/>
+      <c r="EJ3" s="1"/>
+      <c r="EK3" s="1"/>
+      <c r="EL3" s="1"/>
+      <c r="EM3" s="1"/>
+      <c r="EN3" s="1"/>
+      <c r="EO3" s="1"/>
+      <c r="EP3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="EQ3" s="1"/>
+      <c r="ER3" s="1"/>
+      <c r="ES3" s="1"/>
+      <c r="ET3" s="1"/>
+      <c r="EU3" s="1"/>
+      <c r="EV3" s="1"/>
+      <c r="EW3" s="1"/>
+      <c r="EX3" s="1"/>
+      <c r="EY3" s="1"/>
+      <c r="EZ3" s="1"/>
+      <c r="FA3" s="1"/>
+      <c r="FB3" s="1"/>
+      <c r="FC3" s="1"/>
+      <c r="FD3" s="1"/>
+      <c r="FE3" s="1"/>
+      <c r="FF3" s="1"/>
+      <c r="FG3" s="1"/>
+      <c r="FH3" s="1"/>
+      <c r="FI3" s="1"/>
+      <c r="FJ3" s="1"/>
+      <c r="FK3" s="1"/>
+      <c r="FL3" s="1"/>
+      <c r="FM3" s="1"/>
+      <c r="FN3" s="1"/>
+      <c r="FO3" s="1"/>
+      <c r="FP3" s="1"/>
+      <c r="FQ3" s="1"/>
+      <c r="FR3" s="1"/>
+      <c r="FS3" s="1"/>
+      <c r="FT3" s="1"/>
+      <c r="FU3" s="1"/>
+      <c r="FV3" s="1"/>
+      <c r="FW3" s="1"/>
+      <c r="FX3" s="1"/>
+      <c r="FY3" s="1"/>
+      <c r="FZ3" s="1"/>
+      <c r="GA3" s="1"/>
+      <c r="GB3" s="1"/>
+      <c r="GC3" s="1"/>
+      <c r="GD3" s="1"/>
+      <c r="GE3" s="1"/>
+      <c r="GF3" s="1"/>
+      <c r="GG3" s="1"/>
+      <c r="GH3" s="1"/>
+      <c r="GI3" s="1"/>
+      <c r="GJ3" s="1"/>
+      <c r="GK3" s="1"/>
+      <c r="GL3" s="1"/>
+      <c r="GM3" s="1"/>
+      <c r="GN3" s="1"/>
+      <c r="GO3" s="1"/>
+      <c r="GP3" s="1"/>
+      <c r="GQ3" s="1"/>
+      <c r="GR3" s="1"/>
+      <c r="GS3" s="1"/>
+      <c r="GT3" s="1"/>
+      <c r="GU3" s="1"/>
+      <c r="GV3" s="1"/>
+      <c r="GW3" s="1"/>
+      <c r="GX3" s="1"/>
+      <c r="GY3" s="1"/>
+      <c r="GZ3" s="1"/>
+      <c r="HA3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="HB3" s="1"/>
+      <c r="HC3" s="1"/>
+      <c r="HD3" s="1"/>
+      <c r="HE3" s="1"/>
+      <c r="HF3" s="1"/>
+      <c r="HG3" s="1"/>
+      <c r="HH3" s="1"/>
+      <c r="HI3" s="1"/>
+      <c r="HJ3" s="1"/>
+      <c r="HK3" s="1"/>
+      <c r="HL3" s="1"/>
+      <c r="HM3" s="1"/>
+      <c r="HN3" s="1"/>
+      <c r="HO3" s="1"/>
+      <c r="HP3" s="1"/>
+      <c r="HQ3" s="1"/>
+      <c r="HR3" s="1"/>
+      <c r="HS3" s="1"/>
+      <c r="HT3" s="1"/>
+      <c r="HU3" s="1"/>
+      <c r="HV3" s="1"/>
+      <c r="HW3" s="1"/>
+      <c r="HX3" s="1"/>
+      <c r="HY3" s="1"/>
+      <c r="HZ3" s="1"/>
+      <c r="IA3" s="1"/>
+      <c r="IB3" s="1"/>
+      <c r="IC3" s="1"/>
+      <c r="ID3" s="1"/>
+      <c r="IE3" s="1"/>
+      <c r="IF3" s="1"/>
+      <c r="IG3" s="1"/>
+      <c r="IH3" s="1"/>
+      <c r="II3" s="1"/>
+      <c r="IJ3" s="1"/>
+      <c r="IK3" s="1"/>
+      <c r="IL3" s="1"/>
+      <c r="IM3" s="1"/>
+      <c r="IN3" s="1"/>
+      <c r="IO3" s="1"/>
+      <c r="IP3" s="1"/>
+      <c r="IQ3" s="1"/>
+      <c r="IR3" s="1"/>
+      <c r="IS3" s="1"/>
+      <c r="IT3" s="1"/>
+      <c r="IU3" s="1"/>
+      <c r="IV3" s="1"/>
+      <c r="IW3" s="1"/>
+      <c r="IX3" s="1"/>
+      <c r="IY3" s="1"/>
+      <c r="IZ3" s="1"/>
+      <c r="JA3" s="1"/>
+      <c r="JB3" s="1"/>
+      <c r="JC3" s="1"/>
+      <c r="JD3" s="1"/>
+      <c r="JE3" s="1"/>
+      <c r="JF3" s="1"/>
+      <c r="JG3" s="1"/>
+      <c r="JH3" s="1"/>
+      <c r="JI3" s="1"/>
+      <c r="JJ3" s="1"/>
+      <c r="JK3" s="1"/>
+      <c r="JL3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="JM3" s="1"/>
+      <c r="JN3" s="1"/>
+      <c r="JO3" s="1"/>
+      <c r="JP3" s="1"/>
+      <c r="JQ3" s="1"/>
+      <c r="JR3" s="1"/>
+      <c r="JS3" s="1"/>
+      <c r="JT3" s="1"/>
+      <c r="JU3" s="1"/>
+      <c r="JV3" s="1"/>
+    </row>
+    <row r="4" spans="2:282">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BS4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BT4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BU4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BW4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BX4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BY4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BZ4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="CA4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="CB4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="CC4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="CD4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="CE4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="CF4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CG4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="CH4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="CI4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="CJ4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="CK4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="CL4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="CM4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="CN4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="CO4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="CP4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="CQ4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="CR4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="CS4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="CT4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="CU4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="CV4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="CW4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="CX4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="CY4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="CZ4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="DA4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="DB4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="DC4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="DD4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="DE4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="DF4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="DG4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DH4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="DI4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="DJ4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="DK4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="DM4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="DN4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="DO4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="DP4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="DQ4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="DR4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="DS4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="DT4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="DU4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="DV4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="DW4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="DX4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="DZ4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="EA4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="EB4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="EC4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="ED4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="EE4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="EF4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="EG4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="EH4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="EI4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="EJ4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="EK4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="EL4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="EM4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="EN4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="EO4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="EP4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="EQ4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="ER4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="ES4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="ET4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="EU4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="EV4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="EW4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="EX4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="EY4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="EZ4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="FA4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="FB4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="FC4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="FD4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="FE4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="FF4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="FG4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="FH4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="FI4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="FJ4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="FK4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="FL4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="FM4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="FN4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="FO4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="FP4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="FQ4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="FR4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FS4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="FT4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="FU4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="FV4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="FW4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="FX4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="FY4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="FZ4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="GA4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="GB4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="GC4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="GD4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="GE4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="GF4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="GG4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="GH4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="GI4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GJ4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="GK4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="GL4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="GM4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="GN4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="GO4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="GP4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="GQ4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="GR4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="GS4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="GT4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="GU4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="GV4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="GW4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="GX4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="GY4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="GZ4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="HA4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="HB4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="HC4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="HD4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="HE4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="HF4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="HG4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="HH4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="HI4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="HJ4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="HK4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="HL4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="HM4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="HN4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="HO4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="HP4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="HQ4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="HR4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="HS4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="HT4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="HU4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="HV4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="HW4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="HX4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="HY4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="HZ4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="IA4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="IB4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="IC4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ID4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="IE4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="IF4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="IG4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="IH4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="II4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="IJ4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="IK4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="IL4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="IM4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="IN4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="IO4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="IP4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="IQ4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="IR4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="IS4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="IT4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="IU4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="IV4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="IW4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="IX4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="IY4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="IZ4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="JA4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="JB4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="JC4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="JD4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="JE4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="JF4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="JG4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="JH4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="JI4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="JJ4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="JK4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="JL4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="JM4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="JN4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="JO4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="JP4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="JQ4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="JR4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="JS4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="JT4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="JU4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="JV4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:282">
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="BF5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="BG5" s="4"/>
+      <c r="BH5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL5" s="2"/>
+      <c r="BM5" s="2"/>
+      <c r="BN5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="BO5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="BP5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BQ5" s="2"/>
+      <c r="BR5" s="2"/>
+      <c r="BS5" s="2"/>
+      <c r="BT5" s="2"/>
+      <c r="BU5" s="2"/>
+      <c r="BV5" s="2"/>
+      <c r="BW5" s="2"/>
+      <c r="BX5" s="2"/>
+      <c r="BY5" s="2"/>
+      <c r="BZ5" s="2"/>
+      <c r="CA5" s="2"/>
+      <c r="CB5" s="2"/>
+      <c r="CC5" s="2"/>
+      <c r="CD5" s="2"/>
+      <c r="CE5" s="2"/>
+      <c r="CF5" s="2"/>
+      <c r="CG5" s="2"/>
+      <c r="CH5" s="2"/>
+      <c r="CI5" s="2"/>
+      <c r="CJ5" s="2"/>
+      <c r="CK5" s="2"/>
+      <c r="CL5" s="2"/>
+      <c r="CM5" s="2"/>
+      <c r="CN5" s="2"/>
+      <c r="CO5" s="2"/>
+      <c r="CP5" s="2"/>
+      <c r="CQ5" s="2"/>
+      <c r="CR5" s="2"/>
+      <c r="CS5" s="2"/>
+      <c r="CT5" s="2"/>
+      <c r="CU5" s="2"/>
+      <c r="CV5" s="2"/>
+      <c r="CW5" s="2"/>
+      <c r="CX5" s="2"/>
+      <c r="CY5" s="2"/>
+      <c r="CZ5" s="2"/>
+      <c r="DA5" s="2"/>
+      <c r="DB5" s="2"/>
+      <c r="DC5" s="2"/>
+      <c r="DD5" s="2"/>
+      <c r="DE5" s="2"/>
+      <c r="DF5" s="2"/>
+      <c r="DG5" s="2"/>
+      <c r="DH5" s="2"/>
+      <c r="DI5" s="2"/>
+      <c r="DJ5" s="2"/>
+      <c r="DK5" s="2"/>
+      <c r="DL5" s="2"/>
+      <c r="DM5" s="2"/>
+      <c r="DN5" s="2"/>
+      <c r="DO5" s="2"/>
+      <c r="DP5" s="2"/>
+      <c r="DQ5" s="2"/>
+      <c r="DR5" s="2"/>
+      <c r="DS5" s="2"/>
+      <c r="DT5" s="2"/>
+      <c r="DU5" s="2"/>
+      <c r="DV5" s="2"/>
+      <c r="DW5" s="2"/>
+      <c r="DX5" s="2"/>
+      <c r="DY5" s="2"/>
+      <c r="DZ5" s="2"/>
+      <c r="EA5" s="2"/>
+      <c r="EB5" s="2"/>
+      <c r="EC5" s="2"/>
+      <c r="ED5" s="2"/>
+      <c r="EE5" s="2"/>
+      <c r="EF5" s="2"/>
+      <c r="EG5" s="2"/>
+      <c r="EH5" s="2"/>
+      <c r="EI5" s="2"/>
+      <c r="EJ5" s="2"/>
+      <c r="EK5" s="2"/>
+      <c r="EL5" s="2"/>
+      <c r="EM5" s="2"/>
+      <c r="EN5" s="2"/>
+      <c r="EO5" s="2"/>
+      <c r="EP5" s="2"/>
+      <c r="EQ5" s="2"/>
+      <c r="ER5" s="2"/>
+      <c r="ES5" s="2"/>
+      <c r="ET5" s="2"/>
+      <c r="EU5" s="2"/>
+      <c r="EV5" s="2"/>
+      <c r="EW5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="EX5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="EY5" s="4"/>
+      <c r="EZ5" s="4"/>
+      <c r="FA5" s="4"/>
+      <c r="FB5" s="4"/>
+      <c r="FC5" s="4"/>
+      <c r="FD5" s="4"/>
+      <c r="FE5" s="4"/>
+      <c r="FF5" s="4"/>
+      <c r="FG5" s="4"/>
+      <c r="FH5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="FI5" s="2"/>
+      <c r="FJ5" s="2"/>
+      <c r="FK5" s="2"/>
+      <c r="FL5" s="2"/>
+      <c r="FM5" s="2"/>
+      <c r="FN5" s="2"/>
+      <c r="FO5" s="2"/>
+      <c r="FP5" s="2"/>
+      <c r="FQ5" s="2"/>
+      <c r="FR5" s="2"/>
+      <c r="FS5" s="2"/>
+      <c r="FT5" s="2"/>
+      <c r="FU5" s="2"/>
+      <c r="FV5" s="2"/>
+      <c r="FW5" s="2"/>
+      <c r="FX5" s="2"/>
+      <c r="FY5" s="2"/>
+      <c r="FZ5" s="2"/>
+      <c r="GA5" s="2"/>
+      <c r="GB5" s="2"/>
+      <c r="GC5" s="2"/>
+      <c r="GD5" s="2"/>
+      <c r="GE5" s="2"/>
+      <c r="GF5" s="2"/>
+      <c r="GG5" s="2"/>
+      <c r="GH5" s="2"/>
+      <c r="GI5" s="2"/>
+      <c r="GJ5" s="2"/>
+      <c r="GK5" s="2"/>
+      <c r="GL5" s="2"/>
+      <c r="GM5" s="2"/>
+      <c r="GN5" s="2"/>
+      <c r="GO5" s="2"/>
+      <c r="GP5" s="2"/>
+      <c r="GQ5" s="2"/>
+      <c r="GR5" s="2"/>
+      <c r="GS5" s="2"/>
+      <c r="GT5" s="2"/>
+      <c r="GU5" s="2"/>
+      <c r="GV5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="GW5" s="3"/>
+      <c r="GX5" s="3"/>
+      <c r="GY5" s="3"/>
+      <c r="GZ5" s="3"/>
+      <c r="HA5" s="3"/>
+      <c r="HB5" s="3"/>
+      <c r="HC5" s="3"/>
+      <c r="HD5" s="3"/>
+      <c r="HE5" s="3"/>
+      <c r="HF5" s="3"/>
+      <c r="HG5" s="3"/>
+      <c r="HH5" s="3"/>
+      <c r="HI5" s="3"/>
+      <c r="HJ5" s="3"/>
+      <c r="HK5" s="3"/>
+      <c r="HL5" s="3"/>
+      <c r="HM5" s="3"/>
+      <c r="HN5" s="3"/>
+      <c r="HO5" s="3"/>
+      <c r="HP5" s="3"/>
+      <c r="HQ5" s="3"/>
+      <c r="HR5" s="3"/>
+      <c r="HS5" s="3"/>
+      <c r="HT5" s="3"/>
+      <c r="HU5" s="3"/>
+      <c r="HV5" s="3"/>
+      <c r="HW5" s="3"/>
+      <c r="HX5" s="3"/>
+      <c r="HY5" s="3"/>
+      <c r="HZ5" s="3"/>
+      <c r="IA5" s="3"/>
+      <c r="IB5" s="3"/>
+      <c r="IC5" s="3"/>
+      <c r="ID5" s="3"/>
+      <c r="IE5" s="3"/>
+      <c r="IF5" s="3"/>
+      <c r="IG5" s="3"/>
+      <c r="IH5" s="3"/>
+      <c r="II5" s="3"/>
+      <c r="IJ5" s="3"/>
+      <c r="IK5" s="3"/>
+      <c r="IL5" s="3"/>
+      <c r="IM5" s="3"/>
+      <c r="IN5" s="3"/>
+      <c r="IO5" s="3"/>
+      <c r="IP5" s="3"/>
+      <c r="IQ5" s="3"/>
+      <c r="IR5" s="3"/>
+      <c r="IS5" s="3"/>
+      <c r="IT5" s="3"/>
+      <c r="IU5" s="3"/>
+      <c r="IV5" s="3"/>
+      <c r="IW5" s="3"/>
+      <c r="IX5" s="3"/>
+      <c r="IY5" s="3"/>
+      <c r="IZ5" s="3"/>
+      <c r="JA5" s="3"/>
+      <c r="JB5" s="3"/>
+      <c r="JC5" s="3"/>
+      <c r="JD5" s="3"/>
+      <c r="JE5" s="3"/>
+      <c r="JF5" s="3"/>
+      <c r="JG5" s="3"/>
+      <c r="JH5" s="3"/>
+      <c r="JI5" s="3"/>
+      <c r="JJ5" s="3"/>
+      <c r="JK5" s="3"/>
+      <c r="JL5" s="3"/>
+      <c r="JM5" s="3"/>
+      <c r="JN5" s="3"/>
+      <c r="JO5" s="3"/>
+      <c r="JP5" s="3"/>
+      <c r="JQ5" s="3"/>
+      <c r="JR5" s="3"/>
+      <c r="JS5" s="3"/>
+      <c r="JT5" s="3"/>
+      <c r="JU5" s="3"/>
+      <c r="JV5" s="3"/>
+    </row>
+    <row r="10" spans="2:282">
+      <c r="B10" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="2:282">
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
+      <c r="BD11" s="1"/>
+      <c r="BE11" s="1"/>
+      <c r="BF11" s="1"/>
+      <c r="BG11" s="1"/>
+      <c r="BH11" s="1"/>
+      <c r="BI11" s="1"/>
+      <c r="BJ11" s="1"/>
+      <c r="BK11" s="1"/>
+      <c r="BL11" s="1"/>
+      <c r="BM11" s="1"/>
+      <c r="BN11" s="1"/>
+      <c r="BO11" s="1"/>
+      <c r="BP11" s="1"/>
+      <c r="BQ11" s="1"/>
+      <c r="BR11" s="1"/>
+      <c r="BS11" s="1"/>
+      <c r="BT11" s="1"/>
+      <c r="BU11" s="1"/>
+      <c r="BV11" s="1"/>
+      <c r="BW11" s="1"/>
+      <c r="BX11" s="1"/>
+      <c r="BY11" s="1"/>
+      <c r="BZ11" s="1"/>
+      <c r="CA11" s="1"/>
+      <c r="CB11" s="1"/>
+      <c r="CC11" s="1"/>
+      <c r="CD11" s="1"/>
+      <c r="CE11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF11" s="1"/>
+      <c r="CG11" s="1"/>
+      <c r="CH11" s="1"/>
+      <c r="CI11" s="1"/>
+      <c r="CJ11" s="1"/>
+    </row>
+    <row r="12" spans="2:282">
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BF12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BI12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BQ12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BS12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BT12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BU12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BW12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BX12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BY12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BZ12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="CA12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="CB12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="CC12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="CD12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="CE12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="CF12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CG12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="CH12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="CI12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="CJ12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:282">
+      <c r="B13" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="2"/>
+      <c r="BE13" s="2"/>
+      <c r="BF13" s="2"/>
+      <c r="BG13" s="2"/>
+      <c r="BH13" s="2"/>
+      <c r="BI13" s="2"/>
+      <c r="BJ13" s="2"/>
+      <c r="BK13" s="2"/>
+      <c r="BL13" s="2"/>
+      <c r="BM13" s="2"/>
+      <c r="BN13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO13" s="3"/>
+      <c r="BP13" s="3"/>
+      <c r="BQ13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="BR13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS13" s="2"/>
+      <c r="BT13" s="2"/>
+      <c r="BU13" s="2"/>
+      <c r="BV13" s="2"/>
+      <c r="BW13" s="2"/>
+      <c r="BX13" s="2"/>
+      <c r="BY13" s="2"/>
+      <c r="BZ13" s="2"/>
+      <c r="CA13" s="2"/>
+      <c r="CB13" s="2"/>
+      <c r="CC13" s="2"/>
+      <c r="CD13" s="2"/>
+      <c r="CE13" s="2"/>
+      <c r="CF13" s="2"/>
+      <c r="CG13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="CH13" s="3"/>
+      <c r="CI13" s="3"/>
+      <c r="CJ13" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B3:S3"/>
+    <mergeCell ref="B5:AG5"/>
+    <mergeCell ref="AI5:AU5"/>
+    <mergeCell ref="AV5:AW5"/>
+    <mergeCell ref="AY5:BB5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BF5:BG5"/>
+    <mergeCell ref="BK5:BM5"/>
+    <mergeCell ref="T3:CD3"/>
+    <mergeCell ref="CE3:EO3"/>
+    <mergeCell ref="BP5:EV5"/>
+    <mergeCell ref="EX5:FG5"/>
+    <mergeCell ref="FH5:GU5"/>
+    <mergeCell ref="EP3:GZ3"/>
+    <mergeCell ref="HA3:JK3"/>
+    <mergeCell ref="GV5:JV5"/>
+    <mergeCell ref="JL3:JV3"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B11:S11"/>
+    <mergeCell ref="J13:BM13"/>
+    <mergeCell ref="BN13:BP13"/>
+    <mergeCell ref="T11:CD11"/>
+    <mergeCell ref="BR13:CF13"/>
+    <mergeCell ref="CG13:CJ13"/>
+    <mergeCell ref="CE11:CJ11"/>
+  </mergeCells>
+  <dataValidations count="26">
+    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cliente | Encomenda" prompt="lol | lol&#10;" sqref="B5:AG5">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cliente | Encomenda" prompt="ESTUDIO D1 | SEGUNDO CONTENTOR&#10;" sqref="AH5">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cliente | Encomenda" prompt="MANGUALTECNICA | SUSEN 42&#10;" sqref="AI5:AU5">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cliente | Encomenda" prompt="COOLFER | SUSEN 40&#10;" sqref="AV5:AW5">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cliente | Encomenda" prompt="COOLFER | SUSEN 40&#10;ESTUDIO D1 | SEGUNDO CONTENTOR&#10;" sqref="AX5">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cliente | Encomenda" prompt="COOLFER | SUSEN 40&#10;" sqref="AY5:BB5">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cliente | Encomenda" prompt="COOLFER | SUSEN 40&#10;" sqref="BC5:BD5">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cliente | Encomenda" prompt="COOLFER | SUSEN 40&#10;" sqref="BE5">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cliente | Encomenda" prompt="MPLASTIC | SUSEN 53&#10;" sqref="BF5:BG5">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cliente | Encomenda" prompt="ESTUDIO D1 | SEGUNDO CONTENTOR&#10;" sqref="BH5">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cliente | Encomenda" prompt="ESTUDIO D1 | SEGUNDO CONTENTOR&#10;" sqref="BI5">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cliente | Encomenda" prompt="ESTUDIO D1 | SEGUNDO CONTENTOR&#10;" sqref="BJ5">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cliente | Encomenda" prompt="OBVIAFONTE | QUEIMADORES&#10;" sqref="BK5:BM5">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cliente | Encomenda" prompt="ESTUDIO D1 | SEGUNDO CONTENTOR&#10;" sqref="BN5">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cliente | Encomenda" prompt="ESTUDIO D1 | SEGUNDO CONTENTOR&#10;" sqref="BO5">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cliente | Encomenda" prompt="PRILUX | PRODUÇÃO ABRAÇADEIRAS FRANCISCO&#10;" sqref="BP5:EV5">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cliente | Encomenda" prompt="MOVSTEEL - TRANSFORMAÇAO DE METAIS, LDA. | ENCL 221/68 &#10;" sqref="EW5">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cliente | Encomenda" prompt="PRILUX | PRODUÇÃO ALMOFADAS&#10;" sqref="EX5:FG5">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cliente | Encomenda" prompt="MPLASTIC | SUSEN 53&#10;" sqref="FH5:GU5">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cliente | Encomenda" prompt="ANADIROBTIC | SUSEN 28&#10;" sqref="GV5:JV5">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cliente | Encomenda" prompt="PRILUX/FRANCISCO | ENC. TUBO 70x70x3&#10;" sqref="B13:I13">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cliente | Encomenda" prompt="MANGUALTECNICA | SUSEN 41&#10;" sqref="J13:BM13">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cliente | Encomenda" prompt="MPLASTIC | SUSEN 53&#10;" sqref="BN13:BP13">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cliente | Encomenda" prompt="FRANTECER, LDA. | ENCL 221/59 &#10;" sqref="BQ13">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cliente | Encomenda" prompt="ANADIROBTIC | SUSEN 28&#10;" sqref="BR13:CF13">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cliente | Encomenda" prompt="ANADIROBTIC | SUSEN 28&#10;" sqref="CG13:CJ13">
+      <formula1>10</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2:I116"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="10" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" s="3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" s="4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I12" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I13" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I14" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I15" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I17" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I18" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I19" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I20" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I22" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I23" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I24" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I25" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I26" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I27" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I28" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I29" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I30" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I31" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="I32" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I33" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I34" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I35" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I36" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I37" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I38" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I39" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I42" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I46" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="I50" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I51" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I52" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="I53" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I54" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I55" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I56" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I57" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="I58" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="I59" s="5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="I60" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I61" s="2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="I62" s="5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="I63" s="5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="I64" s="5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="I65" s="5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I66" s="2">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="I67" s="5">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="I68" s="5">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="I69" s="5">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="I70" s="5">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I71" s="4">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="I72" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I73" s="4">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I74" s="4">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="B75" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="I75" s="6">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="B76" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="I76" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="B77" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="I77" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="B78" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="I78" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="B79" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="I79" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9">
+      <c r="B80" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="I80" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9">
+      <c r="B81" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="I81" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9">
+      <c r="B82" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I82" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9">
+      <c r="B83" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="I83" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9">
+      <c r="B84" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="I84" s="4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9">
+      <c r="B85" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I85" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9">
+      <c r="B86" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="I86" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9">
+      <c r="B87" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I87" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9">
+      <c r="B88" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="I88" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9">
+      <c r="B89" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="I89" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9">
+      <c r="B90" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I90" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9">
+      <c r="B91" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="I91" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9">
+      <c r="B92" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I92" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9">
+      <c r="B93" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="I93" s="6">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9">
+      <c r="B94" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="I94" s="6">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9">
+      <c r="B95" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="I95" s="6">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9">
+      <c r="B96" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="I96" s="6">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9">
+      <c r="B97" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="I97" s="6">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9">
+      <c r="B98" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="I98" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9">
+      <c r="B99" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="I99" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9">
+      <c r="B100" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="I100" s="6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9">
+      <c r="B101" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="I101" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9">
+      <c r="B102" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I102" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9">
+      <c r="B103" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="I103" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9">
+      <c r="B104" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="I104" s="4">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9">
+      <c r="B105" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="I105" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9">
+      <c r="B106" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="I106" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9">
+      <c r="B107" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="I107" s="4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9">
+      <c r="B108" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="I108" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9">
+      <c r="B109" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="I109" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9">
+      <c r="B110" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="I110" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9">
+      <c r="B111" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="I111" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9">
+      <c r="B112" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I112" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9">
+      <c r="B113" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="I113" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9">
+      <c r="B114" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="I114" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9">
+      <c r="B115" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="I115" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9">
+      <c r="B116" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="I116" s="5">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>